--- a/static/accounts_stage1.xlsx
+++ b/static/accounts_stage1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы для тестов Алексей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4052D1F5-3ECC-49E6-8D40-125957C31503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0820E9B-F786-4EDC-AB73-564B1A59B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15795" yWindow="-5265" windowWidth="13680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="3285" windowWidth="13230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,70 +28,70 @@
     <t>Cookie</t>
   </si>
   <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10002</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7Ccd7b1afac88d293371842bf9e1a2fd6a;steamLoginSecure=76561199692211751%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjIwNkNDMV9GM0VDMCIsICJzdWIiOiAiNzY1NjExOTk2OTIyMTE3NTEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MTAwNzksICJuYmYiOiAxNzM1NjgxOTI1LCAiaWF0IjogMTc0NDMyMTkyNSwgImp0aSI6ICIwMDE4XzI2MjA2RkJCX0UzQjIwIiwgIm9hdCI6IDE3NDQzMjE5MjUsICJydF9leHAiOiAxNzYyMTg3ODczLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMjQuMTM0LjEzOC41MyIsICJpcF9jb25maXJtZXIiOiAiMjQuMTM0LjEzOC41MyIgfQ.ROsC2ic0P4x6lb4M64mJorwXvDJxhHKbgLpOFSCtWjL4vtVhq3TZJMbq1kGJqt40eA8Pabt7fgWG8HFZkEwxBg;sessionid=5fcbef96c44820a6986d546a</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10003</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7Cd30bbca7e269b3dda7e09fc020cc4deb;steamLoginSecure=76561199691816461%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxOF8yNjIwNkZCQl9FM0M4OSIsICJzdWIiOiAiNzY1NjExOTk2OTE4MTY0NjEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDk3ODQsICJuYmYiOiAxNzM1NjgxOTI4LCAiaWF0IjogMTc0NDMyMTkyOCwgImp0aSI6ICIwMDA5XzI2MjA2Q0JFX0YwOTYxIiwgIm9hdCI6IDE3NDQzMjE5MjcsICJydF9leHAiOiAxNzYyMzAyNTgxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNzcuMjEuOTAuMTEzIiwgImlwX2NvbmZpcm1lciI6ICI3Ny4yMS45MC4xMTMiIH0.Lz2-NHb1EbTTNM7D8HCmdXEhyMOcHk61VTzopqZAYa2JYoKU7pzxG38JpHUPO92Tt1436Pfpu_jCRY9Sf16FAw;sessionid=af5a31a21ef908fb1161a18d</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10004</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C568e6f9d58a48527a1d3b4be48226f9e;steamLoginSecure=76561199691648735%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMF8yNjIwNkNCRl8wMENBNSIsICJzdWIiOiAiNzY1NjExOTk2OTE2NDg3MzUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDkyMDksICJuYmYiOiAxNzM1NjgxOTMxLCAiaWF0IjogMTc0NDMyMTkzMSwgImp0aSI6ICIwMDA4XzI2MjA2Q0JGXzE1RkRBIiwgIm9hdCI6IDE3NDQzMjE5MzEsICJydF9leHAiOiAxNzYyNjMzMDE5LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuNDQuMTU1LjE3MSIsICJpcF9jb25maXJtZXIiOiAiODQuNDQuMTU1LjE3MSIgfQ.WaB2TxatP8dHLnsvCSya71GMMo7YMPFo9nDKN2jpu67wqFa8URQ5kaXW0OJ9TK2V5LQ4-akFAAHoXu8PAsdzBw;sessionid=6a15d56558859b7b0f027df7</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10005</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7Cd7efd7600882a8bc0880250341ad6cc5;steamLoginSecure=76561199691732321%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNF8yNjIwNkNCRl8xNjk1QiIsICJzdWIiOiAiNzY1NjExOTk2OTE3MzIzMjEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MTAwODUsICJuYmYiOiAxNzM1NjgxOTM0LCAiaWF0IjogMTc0NDMyMTkzNCwgImp0aSI6ICIwMDEzXzI2MjA2Q0MxX0Y0NUM1IiwgIm9hdCI6IDE3NDQzMjE5MzQsICJydF9leHAiOiAxNzYyNzYzNTc0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTEuMzQuMTYyLjI0OCIsICJpcF9jb25maXJtZXIiOiAiOTEuMzQuMTYyLjI0OCIgfQ.NL80eIHEfDT4JjQ7VUlyGEELqpHq76395K0KeQK8aKabwoIR2PMPlxmwcdnj1u2g2K0Y5mob3ZbQqszlmRS7Cw;sessionid=966fa619847b558b13f5ff86</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10006</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7Cc8d17a24762f6c0b693c29993153adfd;steamLoginSecure=76561199691620115%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjIwNkI2OV8xRTI2RCIsICJzdWIiOiAiNzY1NjExOTk2OTE2MjAxMTUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDkzODUsICJuYmYiOiAxNzM1NjgxOTM3LCAiaWF0IjogMTc0NDMyMTkzNywgImp0aSI6ICIwMDBEXzI2MjA2Q0JGXzA0RDAwIiwgIm9hdCI6IDE3NDQzMjE5MzYsICJydF9leHAiOiAxNzYyMzQ5MDMwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMjEyLjM3LjE2MC42NyIsICJpcF9jb25maXJtZXIiOiAiMjEyLjM3LjE2MC42NyIgfQ.NG_hCFXI4JAvqfVE_3SywckGtk9R0ci-qoPQcl9svy9BJnlzMBc0ot81_cum_rPVp-wZFgUi9bK9IjGJJVsFDQ;sessionid=a14265d2350596576ccbf7c8</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10007</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C944d7ff166fc4346e5e5aebb0e613b2a;steamLoginSecure=76561199691529119%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOF8yNjIwNkNCRl8xNjQ3NSIsICJzdWIiOiAiNzY1NjExOTk2OTE1MjkxMTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDkxODYsICJuYmYiOiAxNzM1NjgxOTM5LCAiaWF0IjogMTc0NDMyMTkzOSwgImp0aSI6ICIwMDExXzI2MjA2Q0MyXzFEQTdFIiwgIm9hdCI6IDE3NDQzMjE5MzksICJydF9leHAiOiAxNzYyNTE5MjA5LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODkuMS4xNDguOTAiLCAiaXBfY29uZmlybWVyIjogIjg5LjEuMTQ4LjkwIiB9.7PF-LtWIuqqBczy3hVWhqgd5mxPczDOg-S_dFrvm1lz882PZ2Ek7KSmRuIyI52AEE445gRMmRKaHsN8iIcrkAw;sessionid=ba5e6c9f455d3175bee8b8bb</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10008</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C37a0dfae754eca727134e683e0010faa;steamLoginSecure=76561199691600146%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNl8yNjIwNkNDNF8wMjYxMSIsICJzdWIiOiAiNzY1NjExOTk2OTE2MDAxNDYiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MTAwMDksICJuYmYiOiAxNzM1NjgxOTQxLCAiaWF0IjogMTc0NDMyMTk0MSwgImp0aSI6ICIwMDEzXzI2MjA2Q0MxX0Y0QTk4IiwgIm9hdCI6IDE3NDQzMjE5NDEsICJydF9leHAiOiAxNzYyNjMwMjM3LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODcuMTIyLjMxLjEyMyIsICJpcF9jb25maXJtZXIiOiAiODcuMTIyLjMxLjEyMyIgfQ.fR3I_mG25N4lOlr-HqyFkPu_moZQamAHi3HwDfoHLlYmAA2n_PWQpYZfBvHP9oforgsbweMyMhUfTJlgPtyIBA;sessionid=5b6e76e32a363684fa38e9f1</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10009</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C22cfb930f94b65352d315fa09abb0de3;steamLoginSecure=76561199691903328%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRF8yNjIwNkNCRl8wNTBGMiIsICJzdWIiOiAiNzY1NjExOTk2OTE5MDMzMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MTAxMDksICJuYmYiOiAxNzM1NjgxOTQ0LCAiaWF0IjogMTc0NDMyMTk0NCwgImp0aSI6ICIwMDAxXzI2MjA2QjY5XzI4QzZFIiwgIm9hdCI6IDE3NDQzMjE5NDMsICJydF9leHAiOiAxNzYyMjA2NzIxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODYuMTAzLjQ5LjE4MCIsICJpcF9jb25maXJtZXIiOiAiODYuMTAzLjQ5LjE4MCIgfQ.ZdPajDZF6KAkqsJ-8gSeEG8IfrcgQnDEVjj2-SRUFHlGmonuqRsTMJrYDjudJtdkb7xkaoMvGfHcAHc6Xha0CA;sessionid=e9d0133ed0d2ff47856ac9be</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10010</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C7a5bb426b6beb42429360c91380e3cd2;steamLoginSecure=76561199691788554%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxOF8yNjIwNkZCQl9FNDhFMyIsICJzdWIiOiAiNzY1NjExOTk2OTE3ODg1NTQiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDk3NjYsICJuYmYiOiAxNzM1NjgxOTQ2LCAiaWF0IjogMTc0NDMyMTk0NiwgImp0aSI6ICIwMDAyXzI2MjA2QjY5XzAxMkZBIiwgIm9hdCI6IDE3NDQzMjE5NDUsICJydF9leHAiOiAxNzYyNDU2Mzk3LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODguMTUzLjEwMy4yMTgiLCAiaXBfY29uZmlybWVyIjogIjg4LjE1My4xMDMuMjE4IiB9.OmPg-H4n_vqB2tsukzkGxRjQ7MHoQYf-4mY0H74_flDSbvqL0GRcwYPgCvxoKcaSWcuH_E7JkjAgKFPgrOsyDA;sessionid=4f78218d12826143b64730c5</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10011</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C66cf274fcabe29109c1cfc14d2beb883;steamLoginSecure=76561199691524908%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNF8yNjIwNkNCRl8xNzJBMyIsICJzdWIiOiAiNzY1NjExOTk2OTE1MjQ5MDgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDg2MzQsICJuYmYiOiAxNzM1NjgxOTQ4LCAiaWF0IjogMTc0NDMyMTk0OCwgImp0aSI6ICIwMDA2XzI2MjA2Q0JGXzBBMTlGIiwgIm9hdCI6IDE3NDQzMjE5NDgsICJydF9leHAiOiAxNzYyNDU1MTQyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTEuNjIuMTI2LjI0NCIsICJpcF9jb25maXJtZXIiOiAiOTEuNjIuMTI2LjI0NCIgfQ.gr14pTFVkQM01rPD_twNSnOk4H0jUzAwZFVXmcNRYWKmFHvpDYw9KDTyiXIRzrt15l6_GooPJ39TEDwveXSkDQ;sessionid=8cafcb9cc4851ac8a59687b7</t>
-  </si>
-  <si>
-    <t>ce01e75bf58398d0:RNW78Fm5@res.proxy-seller.com:10012</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C24426e199359f1446f8c941d3efd4cba;steamLoginSecure=76561199691535358%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNF8yNjIwNkNDM19GQ0I0MSIsICJzdWIiOiAiNzY1NjExOTk2OTE1MzUzNTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDkyMzcsICJuYmYiOiAxNzM1NjgxOTUwLCAiaWF0IjogMTc0NDMyMTk1MCwgImp0aSI6ICIwMDA2XzI2MjA2Q0JGXzBBMzE3IiwgIm9hdCI6IDE3NDQzMjE5NTAsICJydF9leHAiOiAxNzYyMjc1NTQ0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODAuMTQzLjE5NS45NyIsICJpcF9jb25maXJtZXIiOiAiODAuMTQzLjE5NS45NyIgfQ.7EEjHZolipbzPRimQ5tVQ6n6tSi6G2-nmKxr_e3QQNHTQlvAIPLPLnPb8x-Rxd2_iMZt9ZnT3w6TS-H-0K1BAQ;sessionid=c2c038429e740ab1fd30ccc3</t>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10000</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cf0020d60f3da1d5710925ea5717d2d53;steamLoginSecure=76561199692211751%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMF8yNjIwNkNGRV8yMzQ4MyIsICJzdWIiOiAiNzY1NjExOTk2OTIyMTE3NTEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgyMjgsICJuYmYiOiAxNzM1OTkxMjAzLCAiaWF0IjogMTc0NDYzMTIwMywgImp0aSI6ICIwMDE4XzI2MjA2RkZBX0M3RjU2IiwgIm9hdCI6IDE3NDQ2MzEyMDIsICJydF9leHAiOiAxNzYyODgxNjYyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTc0LjEyLjI1MyIsICJpcF9jb25maXJtZXIiOiAiODQuMTc0LjEyLjI1MyIgfQ.lO_RNVUF1Q9Xw3t3uO0xF50wa9db09NGf6_8zmSIZ-_JAEmtmlmnG3CWkDUvj0lJMYsJ_H2hyeqxT6Jq7JV-Dg;sessionid=e5f8dbbebcb6fbd6bdcb0789</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10001</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cd521ca9aa6b33ddce6851624787e1ddf;steamLoginSecure=76561199691816461%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOF8yNjIwNkNGRV8zMjgwMiIsICJzdWIiOiAiNzY1NjExOTk2OTE4MTY0NjEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTc2NzYsICJuYmYiOiAxNzM1OTkxMjA2LCAiaWF0IjogMTc0NDYzMTIwNiwgImp0aSI6ICIwMDA5XzI2MjA2Q0ZEX0JENUQ2IiwgIm9hdCI6IDE3NDQ2MzEyMDUsICJydF9leHAiOiAxNzYyNjgyMTAzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2LjUyLjE4My4xMjciLCAiaXBfY29uZmlybWVyIjogIjE3Ni41Mi4xODMuMTI3IiB9.-5bg6zjfgevezCH9GEYtQdkinyEwdoQ5fzk0SCPfVjf7Kiq1j_LRKi59bApQgWHvcvO_Sv9UDw-oFn2d2Ex7Ag;sessionid=bc0466a31a34f0f757a48034</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10002</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Ce33c4fd1e404c0cd3d11e0ce84c9dd11;steamLoginSecure=76561199691648735%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwN18yNjIwNkNGRF9FQjgxMiIsICJzdWIiOiAiNzY1NjExOTk2OTE2NDg3MzUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg5MDQsICJuYmYiOiAxNzM1OTkxMjA4LCAiaWF0IjogMTc0NDYzMTIwOCwgImp0aSI6ICIwMDA4XzI2MjA2Q0ZFXzMyQUJBIiwgIm9hdCI6IDE3NDQ2MzEyMDcsICJydF9leHAiOiAxNzYyNzc5ODY1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMTYzLjE2Ni4yNyIsICJpcF9jb25maXJtZXIiOiAiOTUuMTYzLjE2Ni4yNyIgfQ.VdN0KbzdaqtU1vrLUpvmYl1lgGVP9DJAG-E6WKPgRNKdt2krtyi1wdA4sBJvKrgQ3n9taOn_plkcNZI0WHxZBg;sessionid=e1a5af074c145a7bbda5dfa6</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10003</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C6ae46174e3a087b88f31ba5965c00f67;steamLoginSecure=76561199691732321%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRV8yNjIwNkJBNl8wNEQzMSIsICJzdWIiOiAiNzY1NjExOTk2OTE3MzIzMjEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg3MjIsICJuYmYiOiAxNzM1OTkxMjExLCAiaWF0IjogMTc0NDYzMTIxMSwgImp0aSI6ICIwMDEzXzI2MjA2RDAxXzAyQzJGIiwgIm9hdCI6IDE3NDQ2MzEyMTAsICJydF9leHAiOiAxNzYzMzIwMzAyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNS4xMDAuNDAuMTIwIiwgImlwX2NvbmZpcm1lciI6ICI1LjEwMC40MC4xMjAiIH0.EAIF_avPY2V6vrwjKBoqmt1nvHqDFkAHlXePBTFB7P0S6dBRbKDQ2b_tvInOxAz73Zu7pVwm5Clsvbov68FmDA;sessionid=84ed68c5057bd7e1e1359246</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10004</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C0c998838e9fe301a348c9d52bfe0ec7e;steamLoginSecure=76561199691620115%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNF8yNjIwNkNGRV8yN0I0MiIsICJzdWIiOiAiNzY1NjExOTk2OTE2MjAxMTUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkzOTYsICJuYmYiOiAxNzM1OTkxMjEzLCAiaWF0IjogMTc0NDYzMTIxMywgImp0aSI6ICIwMDBEXzI2MjA2Q0ZEX0ZDQTQwIiwgIm9hdCI6IDE3NDQ2MzEyMTIsICJydF9leHAiOiAxNzYyODA4MTk4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTQuMTM0LjEwNS42MyIsICJpcF9jb25maXJtZXIiOiAiOTQuMTM0LjEwNS42MyIgfQ.wjS1bXLLueVkx-3rtfUHvt-fBmSgC3RDSb_r-y68B6KYG_IXhCvAiCemoEMwW0f7fcWmo1FewQ9Pt73pKfRHAw;sessionid=5380e1d06a1dbb185b3bc3d1</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10005</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cc81915deb6c8c3df247b61d8429ed415;steamLoginSecure=76561199691529119%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkQwMV8yMjRDNiIsICJzdWIiOiAiNzY1NjExOTk2OTE1MjkxMTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTc2OTIsICJuYmYiOiAxNzM1OTkxMjE1LCAiaWF0IjogMTc0NDYzMTIxNSwgImp0aSI6ICIwMDExXzI2MjA2RDAxXzI2QjQwIiwgIm9hdCI6IDE3NDQ2MzEyMTQsICJydF9leHAiOiAxNzYzMDQ4MTMyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2LjE5OS4yNTMuMjM2IiwgImlwX2NvbmZpcm1lciI6ICIxNzYuMTk5LjI1My4yMzYiIH0.anDQ4XqeL_YmIG8sYFNIj7PELD6pW_SFsNrtU_Bg2wxuX00T7ZF62RLPZVsyxTNC6k4sRiL85ZUbskNlkyGXAg;sessionid=c611620c55429e31627c03e1</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10006</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Ca73d9388d6032cd40ea6fbeee5c6dc94;steamLoginSecure=76561199691600146%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMF8yNjIwNkNGRV8yM0ZENyIsICJzdWIiOiAiNzY1NjExOTk2OTE2MDAxNDYiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg2NDgsICJuYmYiOiAxNzM1OTkxMjE2LCAiaWF0IjogMTc0NDYzMTIxNiwgImp0aSI6ICIwMDEzXzI2MjA2RDAxXzAzMEMwIiwgIm9hdCI6IDE3NDQ2MzEyMTYsICJydF9leHAiOiAxNzYyNzUwNDA0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNjIuMjE2LjIwOS4xNzIiLCAiaXBfY29uZmlybWVyIjogIjYyLjIxNi4yMDkuMTcyIiB9.D6CYyu-Zl_xl6XycX5F5zJn8qmO_au3VmzrCbEdPku_3VwNJWtGYpY0Jb8Lbbohl7wEDUpmbJ_OKS-E8U5SUBQ;sessionid=3007a1b35bbf354be7c4abd7</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10007</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C9578b5df80e9adb14483a3ce47fd89e3;steamLoginSecure=76561199691903328%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxN18yNjIwNkZGQl9GMzBEMyIsICJzdWIiOiAiNzY1NjExOTk2OTE5MDMzMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkwNjIsICJuYmYiOiAxNzM1OTkxMjIwLCAiaWF0IjogMTc0NDYzMTIyMCwgImp0aSI6ICIwMDAxXzI2MjA2QkE4XzNFQzVCIiwgIm9hdCI6IDE3NDQ2MzEyMTksICJydF9leHAiOiAxNzYyODkzODE5LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTMuMTMxLjEwMy45NSIsICJpcF9jb25maXJtZXIiOiAiOTMuMTMxLjEwMy45NSIgfQ.fH4ZBRGrW17qg1--Uba4Kh7UKnu3WGGLWx2CRwQKa21KG1h0uLAqinetNHjHb6NElGSzh8lCPlUnIaLdrlzBCQ;sessionid=0f9c071e20da668364ec1435</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10008</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cbd853e836343ef9aa4be4dcd5e353304;steamLoginSecure=76561199691788554%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNF8yNjIwNkNGRV8yODNEQyIsICJzdWIiOiAiNzY1NjExOTk2OTE3ODg1NTQiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg3NzYsICJuYmYiOiAxNzM1OTkxMjIzLCAiaWF0IjogMTc0NDYzMTIyMywgImp0aSI6ICIwMDAyXzI2MjA2QkE3X0Y5N0U2IiwgIm9hdCI6IDE3NDQ2MzEyMjIsICJydF9leHAiOiAxNzYyNzk0Mjg0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTMzLjI1MC42MiIsICJpcF9jb25maXJtZXIiOiAiODQuMTMzLjI1MC42MiIgfQ.PtmUSE5X56DoPvRyvsoT1jw7AUfAMMtPO3OC1zRsgz1l5dG0ahh7mimDnSkYZoiu1crC2uD3xMT6enIDgeCeDw;sessionid=596028d86a9f21349da56cbb</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10009</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C7a0a91c929d80032488a67847bd72d75;steamLoginSecure=76561199691524908%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOF8yNjIwNkNGRV8zMzhBRCIsICJzdWIiOiAiNzY1NjExOTk2OTE1MjQ5MDgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkzNjQsICJuYmYiOiAxNzM1OTkxMjI1LCAiaWF0IjogMTc0NDYzMTIyNSwgImp0aSI6ICIwMDA2XzI2MjA2Q0ZFXzBERUI4IiwgIm9hdCI6IDE3NDQ2MzEyMjUsICJydF9leHAiOiAxNzYzMDkyMTQ5LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNjIuMTU4LjUzLjIxOSIsICJpcF9jb25maXJtZXIiOiAiNjIuMTU4LjUzLjIxOSIgfQ.jCL6c7gV4THpU5nf-nbmiqonTCO1my497sd1CHpGcq7jRotn3zejesY7vFWu8rvrUh6wJTLGFUfxP3pkuH1dCQ;sessionid=9891545812e54b229fd132b9</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10010</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C7642fc8e52306c0ce8631ec59def551f;steamLoginSecure=76561199691535358%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwM18yNjIwNkJBOF8xOTE5MyIsICJzdWIiOiAiNzY1NjExOTk2OTE1MzUzNTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkwMDcsICJuYmYiOiAxNzM1OTkxMjI3LCAiaWF0IjogMTc0NDYzMTIyNywgImp0aSI6ICIwMDA2XzI2MjA2Q0ZFXzBFMENEIiwgIm9hdCI6IDE3NDQ2MzEyMjcsICJydF9leHAiOiAxNzYyNjgzODEzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjIzLjQ2LjE5NSIsICJpcF9jb25maXJtZXIiOiAiOTUuMjIzLjQ2LjE5NSIgfQ.-rUc_-7polCrDF7y2oRrjJiDVuA2J3DqrElxo4Wte3qDfcsCBn8W5thUkCTYXaef2T_X0EsM98h-9U40hrCDDg;sessionid=edb0daaca96ad58109a4f7e0</t>
   </si>
 </sst>
 </file>
@@ -470,16 +470,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.125" customWidth="1"/>
+    <col min="1" max="1" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -495,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -503,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -511,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -519,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -527,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -535,7 +533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -543,7 +541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -551,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -559,7 +557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -567,7 +565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>

--- a/static/accounts_stage1.xlsx
+++ b/static/accounts_stage1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы для тестов Алексей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0820E9B-F786-4EDC-AB73-564B1A59B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D658B965-CE59-445A-9225-7679AEC373F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="3285" windowWidth="13230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3105" windowWidth="18825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,67 +31,67 @@
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10000</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Cf0020d60f3da1d5710925ea5717d2d53;steamLoginSecure=76561199692211751%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMF8yNjIwNkNGRV8yMzQ4MyIsICJzdWIiOiAiNzY1NjExOTk2OTIyMTE3NTEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgyMjgsICJuYmYiOiAxNzM1OTkxMjAzLCAiaWF0IjogMTc0NDYzMTIwMywgImp0aSI6ICIwMDE4XzI2MjA2RkZBX0M3RjU2IiwgIm9hdCI6IDE3NDQ2MzEyMDIsICJydF9leHAiOiAxNzYyODgxNjYyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTc0LjEyLjI1MyIsICJpcF9jb25maXJtZXIiOiAiODQuMTc0LjEyLjI1MyIgfQ.lO_RNVUF1Q9Xw3t3uO0xF50wa9db09NGf6_8zmSIZ-_JAEmtmlmnG3CWkDUvj0lJMYsJ_H2hyeqxT6Jq7JV-Dg;sessionid=e5f8dbbebcb6fbd6bdcb0789</t>
-  </si>
-  <si>
-    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10001</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7Cd521ca9aa6b33ddce6851624787e1ddf;steamLoginSecure=76561199691816461%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOF8yNjIwNkNGRV8zMjgwMiIsICJzdWIiOiAiNzY1NjExOTk2OTE4MTY0NjEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTc2NzYsICJuYmYiOiAxNzM1OTkxMjA2LCAiaWF0IjogMTc0NDYzMTIwNiwgImp0aSI6ICIwMDA5XzI2MjA2Q0ZEX0JENUQ2IiwgIm9hdCI6IDE3NDQ2MzEyMDUsICJydF9leHAiOiAxNzYyNjgyMTAzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2LjUyLjE4My4xMjciLCAiaXBfY29uZmlybWVyIjogIjE3Ni41Mi4xODMuMTI3IiB9.-5bg6zjfgevezCH9GEYtQdkinyEwdoQ5fzk0SCPfVjf7Kiq1j_LRKi59bApQgWHvcvO_Sv9UDw-oFn2d2Ex7Ag;sessionid=bc0466a31a34f0f757a48034</t>
+    <t>steamCountry=DE%7C0dca55e5cff66b2e611ac08182e0dbff;steamLoginSecure=76561199692211751%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNl8yNjI4N0YzOV9DMUJFOCIsICJzdWIiOiAiNzY1NjExOTk2OTIyMTE3NTEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTQ4NDQsICJuYmYiOiAxNzM2MjY4MDQxLCAiaWF0IjogMTc0NDkwODA0MSwgImp0aSI6ICIwMDE4XzI2Mjg3RjM5X0Q3OUY5IiwgIm9hdCI6IDE3NDQ5MDgwNDAsICJydF9leHAiOiAxNzYyNzg0MDkyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTIuNzIuNTUuMTk0IiwgImlwX2NvbmZpcm1lciI6ICI5Mi43Mi41NS4xOTQiIH0.hUIFQflK-tN5fMdRpqWpP0u_Ccx_6TY4lji9feNaBBHgKjn_xWmUmPAkw9nuSEpqJptcp8Q7BL_CkFcZFT-TBQ;sessionid=c2cdac06b594b7c1423bfd9d</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10002</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Ce33c4fd1e404c0cd3d11e0ce84c9dd11;steamLoginSecure=76561199691648735%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwN18yNjIwNkNGRF9FQjgxMiIsICJzdWIiOiAiNzY1NjExOTk2OTE2NDg3MzUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg5MDQsICJuYmYiOiAxNzM1OTkxMjA4LCAiaWF0IjogMTc0NDYzMTIwOCwgImp0aSI6ICIwMDA4XzI2MjA2Q0ZFXzMyQUJBIiwgIm9hdCI6IDE3NDQ2MzEyMDcsICJydF9leHAiOiAxNzYyNzc5ODY1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMTYzLjE2Ni4yNyIsICJpcF9jb25maXJtZXIiOiAiOTUuMTYzLjE2Ni4yNyIgfQ.VdN0KbzdaqtU1vrLUpvmYl1lgGVP9DJAG-E6WKPgRNKdt2krtyi1wdA4sBJvKrgQ3n9taOn_plkcNZI0WHxZBg;sessionid=e1a5af074c145a7bbda5dfa6</t>
+    <t>steamCountry=DE%7C9d99f2e9ceef3bcc5d147155dc8a40ff;steamLoginSecure=76561199691816461%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRV8yNjI4N0YzOV9DMDc5OCIsICJzdWIiOiAiNzY1NjExOTk2OTE4MTY0NjEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU2MzMsICJuYmYiOiAxNzM2MjY4MDU1LCAiaWF0IjogMTc0NDkwODA1NSwgImp0aSI6ICIwMDA5XzI2Mjg3RjM5X0QyNTRFIiwgIm9hdCI6IDE3NDQ5MDgwNTUsICJydF9leHAiOiAxNzYzMTY0OTQ1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTMuMjAyLjIxMi44NSIsICJpcF9jb25maXJtZXIiOiAiOTMuMjAyLjIxMi44NSIgfQ.7ZEQAyH11fz5YF3G0ntPHIama9TTeuJmgOTlVn5btf_sILikWQ7J7cXk09M09oiD56bFoiOqJxhu8AxeuQpWDQ;sessionid=9fa9fbc93178daf11860cdb2</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10003</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C6ae46174e3a087b88f31ba5965c00f67;steamLoginSecure=76561199691732321%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRV8yNjIwNkJBNl8wNEQzMSIsICJzdWIiOiAiNzY1NjExOTk2OTE3MzIzMjEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg3MjIsICJuYmYiOiAxNzM1OTkxMjExLCAiaWF0IjogMTc0NDYzMTIxMSwgImp0aSI6ICIwMDEzXzI2MjA2RDAxXzAyQzJGIiwgIm9hdCI6IDE3NDQ2MzEyMTAsICJydF9leHAiOiAxNzYzMzIwMzAyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNS4xMDAuNDAuMTIwIiwgImlwX2NvbmZpcm1lciI6ICI1LjEwMC40MC4xMjAiIH0.EAIF_avPY2V6vrwjKBoqmt1nvHqDFkAHlXePBTFB7P0S6dBRbKDQ2b_tvInOxAz73Zu7pVwm5Clsvbov68FmDA;sessionid=84ed68c5057bd7e1e1359246</t>
+    <t>steamCountry=DE%7Cef55fefb289212ea72da0f5f570dc6af;steamLoginSecure=76561199691648735%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0YzOF9DN0VEMCIsICJzdWIiOiAiNzY1NjExOTk2OTE2NDg3MzUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTUwNTAsICJuYmYiOiAxNzM2MjY4MDU3LCAiaWF0IjogMTc0NDkwODA1NywgImp0aSI6ICIwMDA4XzI2Mjg3RjM5X0ZBRUEwIiwgIm9hdCI6IDE3NDQ5MDgwNTcsICJydF9leHAiOiAxNzYzMDY1MDE3LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNS4xNDYuMjUwLjY2IiwgImlwX2NvbmZpcm1lciI6ICI1LjE0Ni4yNTAuNjYiIH0.H60aOkL6-tycxdXBUUCcV67O40A92YGOKuShXMfKo-aK2PUK9iHAoJXmSc80dkkor8rpD-HJsX1ouFjQ7FZgBA;sessionid=ad3773d49ef7fb5ffcb784b8</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10004</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C0c998838e9fe301a348c9d52bfe0ec7e;steamLoginSecure=76561199691620115%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNF8yNjIwNkNGRV8yN0I0MiIsICJzdWIiOiAiNzY1NjExOTk2OTE2MjAxMTUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkzOTYsICJuYmYiOiAxNzM1OTkxMjEzLCAiaWF0IjogMTc0NDYzMTIxMywgImp0aSI6ICIwMDBEXzI2MjA2Q0ZEX0ZDQTQwIiwgIm9hdCI6IDE3NDQ2MzEyMTIsICJydF9leHAiOiAxNzYyODA4MTk4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTQuMTM0LjEwNS42MyIsICJpcF9jb25maXJtZXIiOiAiOTQuMTM0LjEwNS42MyIgfQ.wjS1bXLLueVkx-3rtfUHvt-fBmSgC3RDSb_r-y68B6KYG_IXhCvAiCemoEMwW0f7fcWmo1FewQ9Pt73pKfRHAw;sessionid=5380e1d06a1dbb185b3bc3d1</t>
+    <t>steamCountry=DE%7C120d42cec39915c442d7e8436ae160df;steamLoginSecure=76561199691732321%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwM18yNjI4N0YzOF9DRjMxOCIsICJzdWIiOiAiNzY1NjExOTk2OTE3MzIzMjEiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTQ4ODAsICJuYmYiOiAxNzM2MjY4MDYwLCAiaWF0IjogMTc0NDkwODA2MCwgImp0aSI6ICIwMDEzXzI2Mjg3RjM3X0UyNTc2IiwgIm9hdCI6IDE3NDQ5MDgwNTksICJydF9leHAiOiAxNzYzMDMwOTIxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2LjE5OS4yMTAuMTY2IiwgImlwX2NvbmZpcm1lciI6ICIxNzYuMTk5LjIxMC4xNjYiIH0.pGoK7F6Snai3o9x4fBXzL0FeIEIQh5W1U44BbnI3aUWXcyXYDYC2PAS-cs4quGpypFkrU7QIRY2Q1uEVfaEBAA;sessionid=30619a1cabf6a2467f7dc9fb</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10005</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Cc81915deb6c8c3df247b61d8429ed415;steamLoginSecure=76561199691529119%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkQwMV8yMjRDNiIsICJzdWIiOiAiNzY1NjExOTk2OTE1MjkxMTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTc2OTIsICJuYmYiOiAxNzM1OTkxMjE1LCAiaWF0IjogMTc0NDYzMTIxNSwgImp0aSI6ICIwMDExXzI2MjA2RDAxXzI2QjQwIiwgIm9hdCI6IDE3NDQ2MzEyMTQsICJydF9leHAiOiAxNzYzMDQ4MTMyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2LjE5OS4yNTMuMjM2IiwgImlwX2NvbmZpcm1lciI6ICIxNzYuMTk5LjI1My4yMzYiIH0.anDQ4XqeL_YmIG8sYFNIj7PELD6pW_SFsNrtU_Bg2wxuX00T7ZF62RLPZVsyxTNC6k4sRiL85ZUbskNlkyGXAg;sessionid=c611620c55429e31627c03e1</t>
+    <t>steamCountry=DE%7Cb43bdaa03048553efae3435287f0b473;steamLoginSecure=76561199691620115%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjI4N0YzN19FMjcwQyIsICJzdWIiOiAiNzY1NjExOTk2OTE2MjAxMTUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU2MzYsICJuYmYiOiAxNzM2MjY4MDYyLCAiaWF0IjogMTc0NDkwODA2MiwgImp0aSI6ICIwMDBEXzI2Mjg3RjM3X0Y0QjBFIiwgIm9hdCI6IDE3NDQ5MDgwNjIsICJydF9leHAiOiAxNzYzMDE1NTAwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2Ljk1LjE0MC4xMjYiLCAiaXBfY29uZmlybWVyIjogIjE3Ni45NS4xNDAuMTI2IiB9.mTbtCQlp1JQD7Mh-X67kHCkEBwDKS7W9YhUzscXSeiQzWUZgWL4eYjkv_Q58aP_-yV1Q-J9L3nk09iu6IZYhDg;sessionid=f6218465e5f86026c2f06be4</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10006</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Ca73d9388d6032cd40ea6fbeee5c6dc94;steamLoginSecure=76561199691600146%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMF8yNjIwNkNGRV8yM0ZENyIsICJzdWIiOiAiNzY1NjExOTk2OTE2MDAxNDYiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg2NDgsICJuYmYiOiAxNzM1OTkxMjE2LCAiaWF0IjogMTc0NDYzMTIxNiwgImp0aSI6ICIwMDEzXzI2MjA2RDAxXzAzMEMwIiwgIm9hdCI6IDE3NDQ2MzEyMTYsICJydF9leHAiOiAxNzYyNzUwNDA0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNjIuMjE2LjIwOS4xNzIiLCAiaXBfY29uZmlybWVyIjogIjYyLjIxNi4yMDkuMTcyIiB9.D6CYyu-Zl_xl6XycX5F5zJn8qmO_au3VmzrCbEdPku_3VwNJWtGYpY0Jb8Lbbohl7wEDUpmbJ_OKS-E8U5SUBQ;sessionid=3007a1b35bbf354be7c4abd7</t>
+    <t>steamCountry=DE%7C84f220ff37b08bd0ceec80d443152338;steamLoginSecure=76561199691529119%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRF8yNjI4N0YzN19GNEM1NiIsICJzdWIiOiAiNzY1NjExOTk2OTE1MjkxMTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU4MzgsICJuYmYiOiAxNzM2MjY4MDY0LCAiaWF0IjogMTc0NDkwODA2NCwgImp0aSI6ICIwMDExXzI2Mjg3RjNDXzBFMjZFIiwgIm9hdCI6IDE3NDQ5MDgwNjQsICJydF9leHAiOiAxNzYyODc4NjA4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODkuMS4xNDMuMjE3IiwgImlwX2NvbmZpcm1lciI6ICI4OS4xLjE0My4yMTciIH0.t3bqV6yvqbWKAmsLYfr2bV9c2xO-8uutYso_8bI2trPjc-xm-q7qzXNZzbfb8Bez1WkxAz91cPUheea2Gi69Dg;sessionid=c8972d10c250e1a7028d04a3</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10007</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C9578b5df80e9adb14483a3ce47fd89e3;steamLoginSecure=76561199691903328%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxN18yNjIwNkZGQl9GMzBEMyIsICJzdWIiOiAiNzY1NjExOTk2OTE5MDMzMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkwNjIsICJuYmYiOiAxNzM1OTkxMjIwLCAiaWF0IjogMTc0NDYzMTIyMCwgImp0aSI6ICIwMDAxXzI2MjA2QkE4XzNFQzVCIiwgIm9hdCI6IDE3NDQ2MzEyMTksICJydF9leHAiOiAxNzYyODkzODE5LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTMuMTMxLjEwMy45NSIsICJpcF9jb25maXJtZXIiOiAiOTMuMTMxLjEwMy45NSIgfQ.fH4ZBRGrW17qg1--Uba4Kh7UKnu3WGGLWx2CRwQKa21KG1h0uLAqinetNHjHb6NElGSzh8lCPlUnIaLdrlzBCQ;sessionid=0f9c071e20da668364ec1435</t>
+    <t>steamCountry=DE%7C7699c4a335073afadb54cedf0212c8aa;steamLoginSecure=76561199691600146%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMV8yNjI4N0YzQ18wRTQwNyIsICJzdWIiOiAiNzY1NjExOTk2OTE2MDAxNDYiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTUzMTgsICJuYmYiOiAxNzM2MjY4MDY3LCAiaWF0IjogMTc0NDkwODA2NywgImp0aSI6ICIwMDEzXzI2Mjg3RjM3X0UyQ0JBIiwgIm9hdCI6IDE3NDQ5MDgwNjYsICJydF9leHAiOiAxNzYyODc2NjgwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2LjQuOS4xMDEiLCAiaXBfY29uZmlybWVyIjogIjE3Ni40LjkuMTAxIiB9.dRM8hVmi2MxSdqb0EQYGZg-PliQty6atBVoLUMjydI4gT_CXImiPFa8peU9RxRE7L-pvLjsgT_RJHqDGbw0eBA;sessionid=77ff68adfe52fcd13e72d33c</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10008</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Cbd853e836343ef9aa4be4dcd5e353304;steamLoginSecure=76561199691788554%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNF8yNjIwNkNGRV8yODNEQyIsICJzdWIiOiAiNzY1NjExOTk2OTE3ODg1NTQiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg3NzYsICJuYmYiOiAxNzM1OTkxMjIzLCAiaWF0IjogMTc0NDYzMTIyMywgImp0aSI6ICIwMDAyXzI2MjA2QkE3X0Y5N0U2IiwgIm9hdCI6IDE3NDQ2MzEyMjIsICJydF9leHAiOiAxNzYyNzk0Mjg0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTMzLjI1MC42MiIsICJpcF9jb25maXJtZXIiOiAiODQuMTMzLjI1MC42MiIgfQ.PtmUSE5X56DoPvRyvsoT1jw7AUfAMMtPO3OC1zRsgz1l5dG0ahh7mimDnSkYZoiu1crC2uD3xMT6enIDgeCeDw;sessionid=596028d86a9f21349da56cbb</t>
+    <t>steamCountry=DE%7Cd3e990703e26ac095efb3bb71034f811;steamLoginSecure=76561199691903328%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwM18yNjI4N0YzOF9DRkUxQyIsICJzdWIiOiAiNzY1NjExOTk2OTE5MDMzMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU1NTQsICJuYmYiOiAxNzM2MjY4MDcxLCAiaWF0IjogMTc0NDkwODA3MSwgImp0aSI6ICIwMDAxXzI2Mjg3RjMyXzA0QUZDIiwgIm9hdCI6IDE3NDQ5MDgwNzAsICJydF9leHAiOiAxNzYyOTMxMTkwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODAuMTM0LjIyNi4yMSIsICJpcF9jb25maXJtZXIiOiAiODAuMTM0LjIyNi4yMSIgfQ.2A7sTdzoqSGFYy6R3inJA2_BhmJInMcE373pRqiIHiyWj2sgTB58roWeclzz-zyA7rxh0Nc_RATrR4UxxJ-sDw;sessionid=5d102f00eb23d94ad38416da</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10009</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C7a0a91c929d80032488a67847bd72d75;steamLoginSecure=76561199691524908%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOF8yNjIwNkNGRV8zMzhBRCIsICJzdWIiOiAiNzY1NjExOTk2OTE1MjQ5MDgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkzNjQsICJuYmYiOiAxNzM1OTkxMjI1LCAiaWF0IjogMTc0NDYzMTIyNSwgImp0aSI6ICIwMDA2XzI2MjA2Q0ZFXzBERUI4IiwgIm9hdCI6IDE3NDQ2MzEyMjUsICJydF9leHAiOiAxNzYzMDkyMTQ5LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNjIuMTU4LjUzLjIxOSIsICJpcF9jb25maXJtZXIiOiAiNjIuMTU4LjUzLjIxOSIgfQ.jCL6c7gV4THpU5nf-nbmiqonTCO1my497sd1CHpGcq7jRotn3zejesY7vFWu8rvrUh6wJTLGFUfxP3pkuH1dCQ;sessionid=9891545812e54b229fd132b9</t>
+    <t>steamCountry=DE%7C6e1d0a7ab1cfd4e31a77a6721e9d9522;steamLoginSecure=76561199691788554%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOV8yNjI4N0YzOV9EMzc1NyIsICJzdWIiOiAiNzY1NjExOTk2OTE3ODg1NTQiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTQ1NTcsICJuYmYiOiAxNzM2MjY4MDc0LCAiaWF0IjogMTc0NDkwODA3NCwgImp0aSI6ICIwMDAyXzI2Mjg3RjM4X0M2MDA5IiwgIm9hdCI6IDE3NDQ5MDgwNzMsICJydF9leHAiOiAxNzYzMTQ1OTI1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODcuMTg1LjkzLjE2OSIsICJpcF9jb25maXJtZXIiOiAiODcuMTg1LjkzLjE2OSIgfQ.M-OcBnynpYkqVdEw4saY7hMHJcvFbJfXriUc3ezgNswTVTe1Ty1GlBHQ4P5_0kxkUcUdnLZ91Z6UwYWG71c8DQ;sessionid=d0d3b82ac55c07c0f868d61e</t>
   </si>
   <si>
     <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10010</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C7642fc8e52306c0ce8631ec59def551f;steamLoginSecure=76561199691535358%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwM18yNjIwNkJBOF8xOTE5MyIsICJzdWIiOiAiNzY1NjExOTk2OTE1MzUzNTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkwMDcsICJuYmYiOiAxNzM1OTkxMjI3LCAiaWF0IjogMTc0NDYzMTIyNywgImp0aSI6ICIwMDA2XzI2MjA2Q0ZFXzBFMENEIiwgIm9hdCI6IDE3NDQ2MzEyMjcsICJydF9leHAiOiAxNzYyNjgzODEzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjIzLjQ2LjE5NSIsICJpcF9jb25maXJtZXIiOiAiOTUuMjIzLjQ2LjE5NSIgfQ.-rUc_-7polCrDF7y2oRrjJiDVuA2J3DqrElxo4Wte3qDfcsCBn8W5thUkCTYXaef2T_X0EsM98h-9U40hrCDDg;sessionid=edb0daaca96ad58109a4f7e0</t>
+    <t>steamCountry=DE%7C55c60168b7d07f7c16845918b00738c4;steamLoginSecure=76561199691524908%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxN18yNjI4N0YzQV8xQTREQiIsICJzdWIiOiAiNzY1NjExOTk2OTE1MjQ5MDgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTUwNTIsICJuYmYiOiAxNzM2MjY4MDc2LCAiaWF0IjogMTc0NDkwODA3NiwgImp0aSI6ICIwMDA2XzI2Mjg3RjM1X0RFQ0EyIiwgIm9hdCI6IDE3NDQ5MDgwNzYsICJydF9leHAiOiAxNzYzMjE4MjIyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjIzLjcxLjEwMyIsICJpcF9jb25maXJtZXIiOiAiOTUuMjIzLjcxLjEwMyIgfQ.2jAe6xWfoz9X0bDvjJZmykbe3lHgxQieO7wIB9SCUvF1lg32-QQ0KHn27fh-rpPnNxS58wpCqNQmnEhFaXQcAg;sessionid=dfa9002c597c1c5eaaf0c2d7</t>
+  </si>
+  <si>
+    <t>7f3050cdf0ed3959:RNW78Fm5@res.proxy-seller.com:10011</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C36752a7344467041e7b301500b77706c;steamLoginSecure=76561199691535358%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwQl8yNjI4N0YzQl9CMUUyMyIsICJzdWIiOiAiNzY1NjExOTk2OTE1MzUzNTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTUzNjcsICJuYmYiOiAxNzM2MjY4MDc5LCAiaWF0IjogMTc0NDkwODA3OSwgImp0aSI6ICIwMDA2XzI2Mjg3RjM1X0RFRUZDIiwgIm9hdCI6IDE3NDQ5MDgwNzgsICJydF9leHAiOiAxNzYyODczMDQ4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTY1Ljg4LjE4MiIsICJpcF9jb25maXJtZXIiOiAiODQuMTY1Ljg4LjE4MiIgfQ.fePvaVCAEL1Wo4_YY68raidwY5R6MYchegvzCYtw3hsw9eDehOWmZRI3e53FnthxmdvuIZQqMnPqEIS0ASlBAQ;sessionid=0030ea49f6ce2049084cbc4e</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.875" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
